--- a/doc/user-guide/cookbook/operation/operation-posttime.xlsx
+++ b/doc/user-guide/cookbook/operation/operation-posttime.xlsx
@@ -5,33 +5,32 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frePPLe\Documents\frePPLe_comunity\doc\cookbook\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.0\doc\user-guide\cookbook\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="782" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="782" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="itemoperation" sheetId="23" r:id="rId1"/>
-    <sheet name="buffer" sheetId="1" r:id="rId2"/>
-    <sheet name="calendar bucket" sheetId="20" r:id="rId3"/>
-    <sheet name="calendar" sheetId="22" r:id="rId4"/>
-    <sheet name="customer" sheetId="4" r:id="rId5"/>
-    <sheet name="demand" sheetId="5" r:id="rId6"/>
-    <sheet name="operationmaterial" sheetId="6" r:id="rId7"/>
-    <sheet name="item" sheetId="7" r:id="rId8"/>
-    <sheet name="location" sheetId="9" r:id="rId9"/>
-    <sheet name="operation" sheetId="11" r:id="rId10"/>
-    <sheet name="bucket date" sheetId="17" r:id="rId11"/>
-    <sheet name="bucket" sheetId="18" r:id="rId12"/>
-    <sheet name="parameter" sheetId="19" r:id="rId13"/>
+    <sheet name="buffer" sheetId="1" r:id="rId1"/>
+    <sheet name="calendar bucket" sheetId="20" r:id="rId2"/>
+    <sheet name="calendar" sheetId="22" r:id="rId3"/>
+    <sheet name="customer" sheetId="4" r:id="rId4"/>
+    <sheet name="demand" sheetId="5" r:id="rId5"/>
+    <sheet name="operationmaterial" sheetId="6" r:id="rId6"/>
+    <sheet name="item" sheetId="7" r:id="rId7"/>
+    <sheet name="location" sheetId="9" r:id="rId8"/>
+    <sheet name="operation" sheetId="11" r:id="rId9"/>
+    <sheet name="bucket date" sheetId="17" r:id="rId10"/>
+    <sheet name="bucket" sheetId="18" r:id="rId11"/>
+    <sheet name="parameter" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14070" uniqueCount="6477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14064" uniqueCount="6477">
   <si>
     <t>name</t>
   </si>
@@ -19808,50 +19807,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="21.9296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="34.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6462</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6460</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6463</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>6460</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6470</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6460</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6465</v>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19860,91 +19875,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6464</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6460</v>
-      </c>
-      <c r="D2">
-        <f>8*3600</f>
-        <v>28800</v>
-      </c>
-      <c r="E2">
-        <f>3*86400</f>
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6465</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6460</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">8*3600</f>
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>6475</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6460</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>28800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3484"/>
   <sheetViews>
@@ -68740,7 +68670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -68824,7 +68754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -68890,75 +68820,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="34.53125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6462</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6460</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6463</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6460</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6470</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69065,7 +68926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -69100,7 +68961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -69128,7 +68989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -69267,12 +69128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69359,7 +69220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -69398,7 +69259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -69431,4 +69292,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6460</v>
+      </c>
+      <c r="E2">
+        <f>8*3600</f>
+        <v>28800</v>
+      </c>
+      <c r="F2">
+        <f>3*86400</f>
+        <v>259200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6465</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6470</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6460</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E4" si="0">8*3600</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>6475</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6460</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/user-guide/cookbook/operation/operation-posttime.xlsx
+++ b/doc/user-guide/cookbook/operation/operation-posttime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25F2FBB-7DD4-4CE7-816E-EE7BFF771982}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="7545" tabRatio="782" activeTab="9"/>
+    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,19 @@
     <sheet name="operation" sheetId="11" r:id="rId9"/>
     <sheet name="parameter" sheetId="19" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -163,12 +171,6 @@
   </si>
   <si>
     <t>Client 1</t>
-  </si>
-  <si>
-    <t>intermediate decoupling point @ factory</t>
-  </si>
-  <si>
-    <t>end product @ factory</t>
   </si>
   <si>
     <t>Production step 1</t>
@@ -210,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,6 +342,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +394,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,66 +586,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="34.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +643,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -655,7 +679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -666,7 +690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -683,21 +707,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.86328125" style="2"/>
+    <col min="2" max="3" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -741,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -779,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -791,20 +815,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.86328125" style="2"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -826,24 +850,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -854,25 +878,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.796875" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,9 +922,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -921,12 +945,12 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
@@ -947,12 +971,12 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -973,12 +997,12 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -999,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1008,22 +1032,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1037,9 +1061,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1051,9 +1075,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1065,12 +1089,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1079,12 +1103,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>-1</v>
@@ -1100,37 +1124,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1139,20 +1163,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1174,21 +1198,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1205,12 +1229,12 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1230,15 +1254,15 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
@@ -1248,9 +1272,9 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
